--- a/Datasets/fecundidad.xlsx
+++ b/Datasets/fecundidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Library/CloudStorage/GoogleDrive-davidperez202223@gmail.com/Mi unidad/4th Quarter/INE/Datasets/Datos/David/Nuevos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B804BC85-9007-4F4C-9ED6-D50CEA3033E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC86764-57DC-D344-9148-70955C70ABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="3" r:id="rId1"/>
@@ -1327,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D67FA4B-3DDB-4CA2-97C1-576642AA2FB7}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection sqref="A1:AR1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0667F-D547-4C55-833F-AEB56C818170}">
   <dimension ref="A1:H16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -54414,7 +54414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D464CCE3-64CA-4E3D-B931-F520EF8D111B}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
